--- a/Jogos_do_Dia/2024-04-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -151,12 +151,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
-    <t>Portugal LigaPro</t>
-  </si>
-  <si>
     <t>Italy Serie A</t>
   </si>
   <si>
@@ -199,24 +199,24 @@
     <t>Heerenveen</t>
   </si>
   <si>
+    <t>União de Leiria</t>
+  </si>
+  <si>
+    <t>Djurgården</t>
+  </si>
+  <si>
+    <t>Norrköping</t>
+  </si>
+  <si>
+    <t>Halmstad</t>
+  </si>
+  <si>
+    <t>Kalmar</t>
+  </si>
+  <si>
     <t>Västerås SK</t>
   </si>
   <si>
-    <t>Halmstad</t>
-  </si>
-  <si>
-    <t>Kalmar</t>
-  </si>
-  <si>
-    <t>Djurgården</t>
-  </si>
-  <si>
-    <t>União de Leiria</t>
-  </si>
-  <si>
-    <t>Norrköping</t>
-  </si>
-  <si>
     <t>Udinese</t>
   </si>
   <si>
@@ -241,22 +241,22 @@
     <t>PSV</t>
   </si>
   <si>
+    <t>FC Penafiel</t>
+  </si>
+  <si>
+    <t>Malmö FF</t>
+  </si>
+  <si>
+    <t>Elfsborg</t>
+  </si>
+  <si>
+    <t>Hammarby</t>
+  </si>
+  <si>
+    <t>GAIS</t>
+  </si>
+  <si>
     <t>Mjällby</t>
-  </si>
-  <si>
-    <t>Hammarby</t>
-  </si>
-  <si>
-    <t>GAIS</t>
-  </si>
-  <si>
-    <t>Malmö FF</t>
-  </si>
-  <si>
-    <t>FC Penafiel</t>
-  </si>
-  <si>
-    <t>Elfsborg</t>
   </si>
   <si>
     <t>Roma</t>
@@ -799,13 +799,13 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="K2">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="L2">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
         <v>1.5</v>
@@ -826,10 +826,10 @@
         <v>2.55</v>
       </c>
       <c r="S2">
-        <v>2.37</v>
+        <v>2.48</v>
       </c>
       <c r="T2">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="U2">
         <v>2.05</v>
@@ -862,43 +862,43 @@
         <v>2.85</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -930,13 +930,13 @@
         <v>4.5</v>
       </c>
       <c r="J3">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="K3">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="L3">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M3">
         <v>1.5</v>
@@ -957,10 +957,10 @@
         <v>2.7</v>
       </c>
       <c r="S3">
-        <v>2.37</v>
+        <v>2.48</v>
       </c>
       <c r="T3">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="U3">
         <v>2.07</v>
@@ -993,43 +993,43 @@
         <v>2.82</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1061,13 +1061,13 @@
         <v>1.8</v>
       </c>
       <c r="J4">
-        <v>4.84</v>
+        <v>5.2</v>
       </c>
       <c r="K4">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L4">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="M4">
         <v>1.22</v>
@@ -1088,10 +1088,10 @@
         <v>5.5</v>
       </c>
       <c r="S4">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U4">
         <v>1.67</v>
@@ -1174,7 +1174,7 @@
         <v>53</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>61</v>
@@ -1183,120 +1183,120 @@
         <v>75</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="H5">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I5">
-        <v>3.75</v>
+        <v>4.55</v>
       </c>
       <c r="J5">
-        <v>2.27</v>
+        <v>1.85</v>
       </c>
       <c r="K5">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L5">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="M5">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="N5">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="P5">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q5">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W5">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="X5">
+        <v>1.28</v>
+      </c>
+      <c r="Y5">
+        <v>1.85</v>
+      </c>
+      <c r="Z5">
+        <v>1.6</v>
+      </c>
+      <c r="AA5">
+        <v>0.73</v>
+      </c>
+      <c r="AB5">
+        <v>1.29</v>
+      </c>
+      <c r="AC5">
         <v>1.25</v>
       </c>
-      <c r="Y5">
-        <v>1.57</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
+      <c r="AD5">
+        <v>2.54</v>
+      </c>
+      <c r="AE5">
+        <v>1.58</v>
+      </c>
+      <c r="AF5">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG5">
+        <v>2.74</v>
+      </c>
+      <c r="AH5">
+        <v>1.22</v>
+      </c>
+      <c r="AI5">
+        <v>3.8</v>
+      </c>
+      <c r="AJ5">
+        <v>1.38</v>
+      </c>
+      <c r="AK5">
+        <v>2.8</v>
+      </c>
+      <c r="AL5">
+        <v>1.63</v>
+      </c>
+      <c r="AM5">
+        <v>2.25</v>
+      </c>
+      <c r="AN5">
+        <v>2.02</v>
+      </c>
+      <c r="AO5">
+        <v>1.79</v>
+      </c>
+      <c r="AP5">
+        <v>2.4</v>
+      </c>
+      <c r="AQ5">
         <v>1.5</v>
-      </c>
-      <c r="AB5">
-        <v>1.61</v>
-      </c>
-      <c r="AC5">
-        <v>1.12</v>
-      </c>
-      <c r="AD5">
-        <v>2.73</v>
-      </c>
-      <c r="AE5">
-        <v>1.64</v>
-      </c>
-      <c r="AF5">
-        <v>8.5</v>
-      </c>
-      <c r="AG5">
-        <v>2.66</v>
-      </c>
-      <c r="AH5">
-        <v>1.15</v>
-      </c>
-      <c r="AI5">
-        <v>4.5</v>
-      </c>
-      <c r="AJ5">
-        <v>1.3</v>
-      </c>
-      <c r="AK5">
-        <v>3.3</v>
-      </c>
-      <c r="AL5">
-        <v>1.55</v>
-      </c>
-      <c r="AM5">
-        <v>2.38</v>
-      </c>
-      <c r="AN5">
-        <v>2</v>
-      </c>
-      <c r="AO5">
-        <v>1.8</v>
-      </c>
-      <c r="AP5">
-        <v>2.5</v>
-      </c>
-      <c r="AQ5">
-        <v>1.49</v>
       </c>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2">
         <v>45407</v>
@@ -1314,120 +1314,120 @@
         <v>76</v>
       </c>
       <c r="G6">
-        <v>5.03</v>
+        <v>3.7</v>
       </c>
       <c r="H6">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="I6">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="J6">
-        <v>4.24</v>
+        <v>4.1</v>
       </c>
       <c r="K6">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="M6">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="N6">
-        <v>3.11</v>
+        <v>2.88</v>
       </c>
       <c r="O6">
         <v>1.05</v>
       </c>
       <c r="P6">
-        <v>12.75</v>
+        <v>10</v>
       </c>
       <c r="Q6">
         <v>1.28</v>
       </c>
       <c r="R6">
-        <v>3.72</v>
+        <v>3.8</v>
       </c>
       <c r="S6">
+        <v>1.88</v>
+      </c>
+      <c r="T6">
         <v>1.93</v>
       </c>
-      <c r="T6">
-        <v>1.88</v>
-      </c>
       <c r="U6">
+        <v>1.62</v>
+      </c>
+      <c r="V6">
+        <v>2.1</v>
+      </c>
+      <c r="W6">
+        <v>1.7</v>
+      </c>
+      <c r="X6">
+        <v>1.25</v>
+      </c>
+      <c r="Y6">
+        <v>1.33</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>1.74</v>
+      </c>
+      <c r="AC6">
+        <v>1.89</v>
+      </c>
+      <c r="AD6">
+        <v>3.63</v>
+      </c>
+      <c r="AE6">
+        <v>2.2</v>
+      </c>
+      <c r="AF6">
+        <v>8</v>
+      </c>
+      <c r="AG6">
+        <v>1.91</v>
+      </c>
+      <c r="AH6">
+        <v>1.21</v>
+      </c>
+      <c r="AI6">
+        <v>4.1</v>
+      </c>
+      <c r="AJ6">
+        <v>1.4</v>
+      </c>
+      <c r="AK6">
+        <v>2.8</v>
+      </c>
+      <c r="AL6">
         <v>1.73</v>
       </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
-      <c r="W6">
-        <v>1.95</v>
-      </c>
-      <c r="X6">
-        <v>1.28</v>
-      </c>
-      <c r="Y6">
-        <v>1.25</v>
-      </c>
-      <c r="Z6">
-        <v>1.5</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0.8</v>
-      </c>
-      <c r="AC6">
+      <c r="AM6">
+        <v>2</v>
+      </c>
+      <c r="AN6">
+        <v>2.18</v>
+      </c>
+      <c r="AO6">
+        <v>1.63</v>
+      </c>
+      <c r="AP6">
+        <v>2.95</v>
+      </c>
+      <c r="AQ6">
         <v>1.37</v>
-      </c>
-      <c r="AD6">
-        <v>2.17</v>
-      </c>
-      <c r="AE6">
-        <v>2.64</v>
-      </c>
-      <c r="AF6">
-        <v>9.5</v>
-      </c>
-      <c r="AG6">
-        <v>1.64</v>
-      </c>
-      <c r="AH6">
-        <v>1.16</v>
-      </c>
-      <c r="AI6">
-        <v>4.33</v>
-      </c>
-      <c r="AJ6">
-        <v>1.33</v>
-      </c>
-      <c r="AK6">
-        <v>2.93</v>
-      </c>
-      <c r="AL6">
-        <v>1.6</v>
-      </c>
-      <c r="AM6">
-        <v>2.19</v>
-      </c>
-      <c r="AN6">
-        <v>2.01</v>
-      </c>
-      <c r="AO6">
-        <v>1.75</v>
-      </c>
-      <c r="AP6">
-        <v>2.58</v>
-      </c>
-      <c r="AQ6">
-        <v>1.44</v>
       </c>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>45407</v>
@@ -1445,22 +1445,22 @@
         <v>77</v>
       </c>
       <c r="G7">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>2.2</v>
       </c>
       <c r="I7">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="J7">
-        <v>2.27</v>
+        <v>2.95</v>
       </c>
       <c r="K7">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L7">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="M7">
         <v>1.36</v>
@@ -1481,84 +1481,84 @@
         <v>3.65</v>
       </c>
       <c r="S7">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="T7">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="X7">
         <v>1.25</v>
       </c>
       <c r="Y7">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA7">
         <v>1.5</v>
       </c>
       <c r="AB7">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AC7">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AD7">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="AE7">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="AF7">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG7">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AJ7">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AK7">
-        <v>3.45</v>
+        <v>3.08</v>
       </c>
       <c r="AL7">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AM7">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="AN7">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AO7">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AP7">
-        <v>2.43</v>
+        <v>2.49</v>
       </c>
       <c r="AQ7">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
         <v>45407</v>
@@ -1576,115 +1576,115 @@
         <v>78</v>
       </c>
       <c r="G8">
-        <v>3.7</v>
+        <v>5.03</v>
       </c>
       <c r="H8">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="I8">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="J8">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="K8">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="L8">
-        <v>2.17</v>
+        <v>1.93</v>
       </c>
       <c r="M8">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="N8">
-        <v>2.88</v>
+        <v>3.11</v>
       </c>
       <c r="O8">
         <v>1.05</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>12.75</v>
       </c>
       <c r="Q8">
         <v>1.28</v>
       </c>
       <c r="R8">
-        <v>3.8</v>
+        <v>3.72</v>
       </c>
       <c r="S8">
+        <v>1.93</v>
+      </c>
+      <c r="T8">
         <v>1.88</v>
       </c>
-      <c r="T8">
-        <v>1.93</v>
-      </c>
       <c r="U8">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V8">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="X8">
+        <v>1.28</v>
+      </c>
+      <c r="Y8">
         <v>1.25</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
+        <v>1.5</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0.8</v>
+      </c>
+      <c r="AC8">
+        <v>1.37</v>
+      </c>
+      <c r="AD8">
+        <v>2.17</v>
+      </c>
+      <c r="AE8">
+        <v>2.64</v>
+      </c>
+      <c r="AF8">
+        <v>9.5</v>
+      </c>
+      <c r="AG8">
+        <v>1.64</v>
+      </c>
+      <c r="AH8">
+        <v>1.16</v>
+      </c>
+      <c r="AI8">
+        <v>4.33</v>
+      </c>
+      <c r="AJ8">
         <v>1.33</v>
       </c>
-      <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AA8">
-        <v>3</v>
-      </c>
-      <c r="AB8">
-        <v>1.74</v>
-      </c>
-      <c r="AC8">
-        <v>1.89</v>
-      </c>
-      <c r="AD8">
-        <v>3.63</v>
-      </c>
-      <c r="AE8">
-        <v>2.2</v>
-      </c>
-      <c r="AF8">
-        <v>8</v>
-      </c>
-      <c r="AG8">
-        <v>1.91</v>
-      </c>
-      <c r="AH8">
-        <v>1.21</v>
-      </c>
-      <c r="AI8">
-        <v>4.1</v>
-      </c>
-      <c r="AJ8">
-        <v>1.4</v>
-      </c>
       <c r="AK8">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="AL8">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AM8">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="AN8">
-        <v>2.18</v>
+        <v>2.01</v>
       </c>
       <c r="AO8">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AP8">
-        <v>2.95</v>
+        <v>2.58</v>
       </c>
       <c r="AQ8">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1698,7 +1698,7 @@
         <v>53</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>65</v>
@@ -1707,85 +1707,85 @@
         <v>79</v>
       </c>
       <c r="G9">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="H9">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="I9">
-        <v>4.55</v>
+        <v>3.6</v>
       </c>
       <c r="J9">
-        <v>2.03</v>
+        <v>2.45</v>
       </c>
       <c r="K9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L9">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="M9">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="N9">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O9">
+        <v>1.05</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>1.28</v>
+      </c>
+      <c r="R9">
+        <v>3.65</v>
+      </c>
+      <c r="S9">
+        <v>1.85</v>
+      </c>
+      <c r="T9">
+        <v>1.95</v>
+      </c>
+      <c r="U9">
+        <v>1.7</v>
+      </c>
+      <c r="V9">
+        <v>2.05</v>
+      </c>
+      <c r="W9">
+        <v>1.36</v>
+      </c>
+      <c r="X9">
+        <v>1.25</v>
+      </c>
+      <c r="Y9">
+        <v>1.62</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1.5</v>
+      </c>
+      <c r="AB9">
         <v>1.03</v>
       </c>
-      <c r="P9">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q9">
-        <v>1.32</v>
-      </c>
-      <c r="R9">
-        <v>2.98</v>
-      </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>1.7</v>
-      </c>
-      <c r="U9">
-        <v>1.87</v>
-      </c>
-      <c r="V9">
-        <v>1.83</v>
-      </c>
-      <c r="W9">
-        <v>1.22</v>
-      </c>
-      <c r="X9">
-        <v>1.28</v>
-      </c>
-      <c r="Y9">
-        <v>1.85</v>
-      </c>
-      <c r="Z9">
-        <v>1.6</v>
-      </c>
-      <c r="AA9">
-        <v>0.73</v>
-      </c>
-      <c r="AB9">
-        <v>1.29</v>
-      </c>
       <c r="AC9">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AD9">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1794,33 +1794,33 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2">
         <v>45407</v>
@@ -1838,115 +1838,115 @@
         <v>80</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I10">
+        <v>3.75</v>
+      </c>
+      <c r="J10">
+        <v>2.45</v>
+      </c>
+      <c r="K10">
+        <v>3.25</v>
+      </c>
+      <c r="L10">
         <v>2.63</v>
       </c>
-      <c r="J10">
-        <v>3.4</v>
-      </c>
-      <c r="K10">
-        <v>3.8</v>
-      </c>
-      <c r="L10">
-        <v>2.03</v>
-      </c>
       <c r="M10">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="N10">
+        <v>2.63</v>
+      </c>
+      <c r="O10">
+        <v>1.06</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <v>1.4</v>
+      </c>
+      <c r="R10">
         <v>3</v>
       </c>
-      <c r="O10">
-        <v>1.05</v>
-      </c>
-      <c r="P10">
-        <v>10</v>
-      </c>
-      <c r="Q10">
-        <v>1.28</v>
-      </c>
-      <c r="R10">
-        <v>3.65</v>
-      </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="T10">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>1.8</v>
       </c>
-      <c r="V10">
-        <v>1.95</v>
-      </c>
       <c r="W10">
-        <v>1.72</v>
+        <v>1.37</v>
       </c>
       <c r="X10">
         <v>1.25</v>
       </c>
       <c r="Y10">
-        <v>1.27</v>
+        <v>1.57</v>
       </c>
       <c r="Z10">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>1.5</v>
       </c>
       <c r="AB10">
-        <v>1.07</v>
+        <v>1.61</v>
       </c>
       <c r="AC10">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AD10">
-        <v>2.38</v>
+        <v>2.73</v>
       </c>
       <c r="AE10">
-        <v>2.36</v>
+        <v>1.64</v>
       </c>
       <c r="AF10">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AG10">
-        <v>1.78</v>
+        <v>2.66</v>
       </c>
       <c r="AH10">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AI10">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AJ10">
         <v>1.3</v>
       </c>
       <c r="AK10">
-        <v>3.08</v>
+        <v>3.3</v>
       </c>
       <c r="AL10">
         <v>1.55</v>
       </c>
       <c r="AM10">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AN10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AO10">
         <v>1.8</v>
       </c>
       <c r="AP10">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2109,13 +2109,13 @@
         <v>3</v>
       </c>
       <c r="J12">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="K12">
-        <v>3.51</v>
+        <v>3.2</v>
       </c>
       <c r="L12">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="M12">
         <v>1.38</v>
@@ -2240,13 +2240,13 @@
         <v>3.6</v>
       </c>
       <c r="J13">
-        <v>2.31</v>
+        <v>2.43</v>
       </c>
       <c r="K13">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="L13">
-        <v>2.69</v>
+        <v>2.85</v>
       </c>
       <c r="M13">
         <v>1.42</v>
@@ -2267,10 +2267,10 @@
         <v>3</v>
       </c>
       <c r="S13">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="T13">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="U13">
         <v>1.82</v>
@@ -2303,43 +2303,43 @@
         <v>3.37</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2371,13 +2371,13 @@
         <v>2</v>
       </c>
       <c r="J14">
-        <v>4.91</v>
+        <v>6.1</v>
       </c>
       <c r="K14">
-        <v>4.15</v>
+        <v>4.6</v>
       </c>
       <c r="L14">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="M14">
         <v>1.29</v>

--- a/Jogos_do_Dia/2024-04-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -799,13 +799,13 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="K2">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
         <v>1.5</v>
@@ -826,10 +826,10 @@
         <v>2.55</v>
       </c>
       <c r="S2">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
       <c r="T2">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="U2">
         <v>2.05</v>
@@ -930,13 +930,13 @@
         <v>4.5</v>
       </c>
       <c r="J3">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="K3">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="L3">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
         <v>1.5</v>
@@ -957,10 +957,10 @@
         <v>2.7</v>
       </c>
       <c r="S3">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
       <c r="T3">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="U3">
         <v>2.07</v>
@@ -1061,13 +1061,13 @@
         <v>1.8</v>
       </c>
       <c r="J4">
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="K4">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L4">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="M4">
         <v>1.22</v>
@@ -1088,10 +1088,10 @@
         <v>5.5</v>
       </c>
       <c r="S4">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="T4">
-        <v>2.38</v>
+        <v>2.78</v>
       </c>
       <c r="U4">
         <v>1.67</v>
@@ -1788,10 +1788,10 @@
         <v>1.91</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AJ9">
         <v>1.29</v>
@@ -2109,13 +2109,13 @@
         <v>3</v>
       </c>
       <c r="J12">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="M12">
         <v>1.38</v>
@@ -2136,10 +2136,10 @@
         <v>3.45</v>
       </c>
       <c r="S12">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U12">
         <v>1.67</v>
@@ -2240,13 +2240,13 @@
         <v>3.6</v>
       </c>
       <c r="J13">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="K13">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="M13">
         <v>1.42</v>
@@ -2267,10 +2267,10 @@
         <v>3</v>
       </c>
       <c r="S13">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="U13">
         <v>1.82</v>
@@ -2371,13 +2371,13 @@
         <v>2</v>
       </c>
       <c r="J14">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L14">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="M14">
         <v>1.29</v>
@@ -2398,10 +2398,10 @@
         <v>4.75</v>
       </c>
       <c r="S14">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="T14">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="U14">
         <v>1.67</v>
